--- a/data/fppe_data_urban.xlsx
+++ b/data/fppe_data_urban.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10608"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10911"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akshay/Workspace/MLC/FPPE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37C4F58A-76C1-CA47-B9FD-EDD2A190DE1D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{249918A7-280F-324B-BB6B-B46BD482F119}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -112,9 +112,6 @@
     <t>India</t>
   </si>
   <si>
-    <t>Andaman &amp; Nicobar Islands</t>
-  </si>
-  <si>
     <t>Andhra Pradesh</t>
   </si>
   <si>
@@ -136,9 +133,6 @@
     <t>Delhi</t>
   </si>
   <si>
-    <t>Dadra &amp; Nagar Haveli and Daman &amp; Diu</t>
-  </si>
-  <si>
     <t>Goa</t>
   </si>
   <si>
@@ -148,9 +142,6 @@
     <t>Himachal Pradesh</t>
   </si>
   <si>
-    <t>Jammu &amp; Kashmir</t>
-  </si>
-  <si>
     <t>Jharkhand</t>
   </si>
   <si>
@@ -218,6 +209,15 @@
   </si>
   <si>
     <t>Haryana</t>
+  </si>
+  <si>
+    <t>Andaman &amp; Nicobar</t>
+  </si>
+  <si>
+    <t>Jammu and Kashmir</t>
+  </si>
+  <si>
+    <t>Dadra &amp; Nagar Haveli &amp; Daman &amp; Diu</t>
   </si>
 </sst>
 </file>
@@ -320,7 +320,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -332,7 +332,7 @@
     <xf numFmtId="4" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -642,7 +642,7 @@
   </sheetPr>
   <dimension ref="A1:AQ41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
       <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
@@ -693,107 +693,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" x14ac:dyDescent="0.2">
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="14"/>
-      <c r="U1" s="14"/>
-      <c r="V1" s="14"/>
-      <c r="W1" s="14"/>
-      <c r="X1" s="14"/>
-      <c r="Y1" s="14"/>
-      <c r="Z1" s="14"/>
-      <c r="AA1" s="14"/>
-      <c r="AB1" s="14"/>
-      <c r="AC1" s="14"/>
-      <c r="AD1" s="14"/>
-      <c r="AE1" s="14"/>
-      <c r="AF1" s="14"/>
-      <c r="AG1" s="14"/>
-      <c r="AH1" s="14"/>
-      <c r="AI1" s="14"/>
-      <c r="AJ1" s="14"/>
-      <c r="AK1" s="14"/>
-      <c r="AL1" s="14"/>
-      <c r="AM1" s="14"/>
-      <c r="AN1" s="14"/>
-      <c r="AO1" s="14"/>
-      <c r="AP1" s="14"/>
-      <c r="AQ1" s="14"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
+      <c r="AB1" s="10"/>
+      <c r="AC1" s="10"/>
+      <c r="AD1" s="10"/>
+      <c r="AE1" s="10"/>
+      <c r="AF1" s="10"/>
+      <c r="AG1" s="10"/>
+      <c r="AH1" s="10"/>
+      <c r="AI1" s="10"/>
+      <c r="AJ1" s="10"/>
+      <c r="AK1" s="10"/>
+      <c r="AL1" s="10"/>
+      <c r="AM1" s="10"/>
+      <c r="AN1" s="10"/>
+      <c r="AO1" s="10"/>
+      <c r="AP1" s="10"/>
+      <c r="AQ1" s="10"/>
     </row>
     <row r="2" spans="1:43" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10"/>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10"/>
-      <c r="V2" s="10" t="s">
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="14"/>
+      <c r="N2" s="14"/>
+      <c r="O2" s="14"/>
+      <c r="P2" s="14"/>
+      <c r="Q2" s="14"/>
+      <c r="R2" s="14"/>
+      <c r="S2" s="14"/>
+      <c r="T2" s="14"/>
+      <c r="U2" s="14"/>
+      <c r="V2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="10"/>
-      <c r="X2" s="10"/>
-      <c r="Y2" s="10"/>
-      <c r="Z2" s="10"/>
-      <c r="AA2" s="10"/>
-      <c r="AB2" s="10" t="s">
+      <c r="W2" s="14"/>
+      <c r="X2" s="14"/>
+      <c r="Y2" s="14"/>
+      <c r="Z2" s="14"/>
+      <c r="AA2" s="14"/>
+      <c r="AB2" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="AC2" s="10"/>
-      <c r="AD2" s="10"/>
-      <c r="AE2" s="10"/>
-      <c r="AF2" s="10"/>
-      <c r="AG2" s="10"/>
-      <c r="AH2" s="10" t="s">
+      <c r="AC2" s="14"/>
+      <c r="AD2" s="14"/>
+      <c r="AE2" s="14"/>
+      <c r="AF2" s="14"/>
+      <c r="AG2" s="14"/>
+      <c r="AH2" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="AI2" s="10"/>
-      <c r="AJ2" s="10"/>
-      <c r="AK2" s="10"/>
-      <c r="AL2" s="10" t="s">
+      <c r="AI2" s="14"/>
+      <c r="AJ2" s="14"/>
+      <c r="AK2" s="14"/>
+      <c r="AL2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AM2" s="10"/>
-      <c r="AN2" s="10"/>
-      <c r="AO2" s="10"/>
-      <c r="AP2" s="10" t="s">
+      <c r="AM2" s="14"/>
+      <c r="AN2" s="14"/>
+      <c r="AO2" s="14"/>
+      <c r="AP2" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="AQ2" s="10"/>
+      <c r="AQ2" s="14"/>
     </row>
     <row r="3" spans="1:43" s="3" customFormat="1" ht="33" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4"/>
@@ -1102,7 +1102,7 @@
     </row>
     <row r="6" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>30</v>
+        <v>63</v>
       </c>
       <c r="B6" s="6"/>
       <c r="C6" s="6">
@@ -1191,7 +1191,7 @@
     </row>
     <row r="7" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="6"/>
       <c r="C7" s="6">
@@ -1280,7 +1280,7 @@
     </row>
     <row r="8" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="6"/>
       <c r="C8" s="6">
@@ -1369,7 +1369,7 @@
     </row>
     <row r="9" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B9" s="6"/>
       <c r="C9" s="6">
@@ -1458,7 +1458,7 @@
     </row>
     <row r="10" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B10" s="6"/>
       <c r="C10" s="6">
@@ -1547,7 +1547,7 @@
     </row>
     <row r="11" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="6">
@@ -1636,7 +1636,7 @@
     </row>
     <row r="12" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B12" s="6"/>
       <c r="C12" s="6">
@@ -1725,7 +1725,7 @@
     </row>
     <row r="13" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B13" s="6"/>
       <c r="C13" s="6">
@@ -1814,7 +1814,7 @@
     </row>
     <row r="14" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="B14" s="6"/>
       <c r="C14" s="6">
@@ -1903,7 +1903,7 @@
     </row>
     <row r="15" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15" s="6"/>
       <c r="C15" s="6">
@@ -1992,7 +1992,7 @@
     </row>
     <row r="16" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16" s="6"/>
       <c r="C16" s="6">
@@ -2081,7 +2081,7 @@
     </row>
     <row r="17" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B17" s="6"/>
       <c r="C17" s="6">
@@ -2170,7 +2170,7 @@
     </row>
     <row r="18" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="6">
@@ -2259,7 +2259,7 @@
     </row>
     <row r="19" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="B19" s="6"/>
       <c r="C19" s="6">
@@ -2348,7 +2348,7 @@
     </row>
     <row r="20" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B20" s="6"/>
       <c r="C20" s="6">
@@ -2437,7 +2437,7 @@
     </row>
     <row r="21" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B21" s="6"/>
       <c r="C21" s="6">
@@ -2526,7 +2526,7 @@
     </row>
     <row r="22" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B22" s="6"/>
       <c r="C22" s="6">
@@ -2615,7 +2615,7 @@
     </row>
     <row r="23" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B23" s="6"/>
       <c r="C23" s="6">
@@ -2704,7 +2704,7 @@
     </row>
     <row r="24" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B24" s="6"/>
       <c r="C24" s="6">
@@ -2793,7 +2793,7 @@
     </row>
     <row r="25" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B25" s="6"/>
       <c r="C25" s="6">
@@ -2882,7 +2882,7 @@
     </row>
     <row r="26" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B26" s="6"/>
       <c r="C26" s="6">
@@ -2971,7 +2971,7 @@
     </row>
     <row r="27" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="6">
@@ -3060,7 +3060,7 @@
     </row>
     <row r="28" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="6">
@@ -3149,7 +3149,7 @@
     </row>
     <row r="29" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="6">
@@ -3238,7 +3238,7 @@
     </row>
     <row r="30" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B30" s="6"/>
       <c r="C30" s="6">
@@ -3327,7 +3327,7 @@
     </row>
     <row r="31" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B31" s="6"/>
       <c r="C31" s="6">
@@ -3416,7 +3416,7 @@
     </row>
     <row r="32" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B32" s="6"/>
       <c r="C32" s="6">
@@ -3505,7 +3505,7 @@
     </row>
     <row r="33" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B33" s="6"/>
       <c r="C33" s="6">
@@ -3594,7 +3594,7 @@
     </row>
     <row r="34" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B34" s="6"/>
       <c r="C34" s="6">
@@ -3683,7 +3683,7 @@
     </row>
     <row r="35" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B35" s="6"/>
       <c r="C35" s="6">
@@ -3772,7 +3772,7 @@
     </row>
     <row r="36" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B36" s="6"/>
       <c r="C36" s="6">
@@ -3861,7 +3861,7 @@
     </row>
     <row r="37" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B37" s="6"/>
       <c r="C37" s="6">
@@ -3950,7 +3950,7 @@
     </row>
     <row r="38" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B38" s="6"/>
       <c r="C38" s="6">
@@ -4039,7 +4039,7 @@
     </row>
     <row r="39" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B39" s="6"/>
       <c r="C39" s="6">
@@ -4128,7 +4128,7 @@
     </row>
     <row r="40" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B40" s="6"/>
       <c r="C40" s="6">
@@ -4217,7 +4217,7 @@
     </row>
     <row r="41" spans="1:43" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B41" s="6"/>
       <c r="C41" s="6">
@@ -4306,6 +4306,18 @@
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="AP2:AQ2"/>
+    <mergeCell ref="B2:U2"/>
+    <mergeCell ref="V2:AA2"/>
+    <mergeCell ref="AB2:AG2"/>
+    <mergeCell ref="AH2:AK2"/>
+    <mergeCell ref="AL2:AO2"/>
+    <mergeCell ref="AP3:AQ3"/>
+    <mergeCell ref="AD3:AE3"/>
+    <mergeCell ref="AF3:AG3"/>
+    <mergeCell ref="AH3:AI3"/>
+    <mergeCell ref="AJ3:AK3"/>
+    <mergeCell ref="AL3:AM3"/>
     <mergeCell ref="B1:AQ1"/>
     <mergeCell ref="B3:C3"/>
     <mergeCell ref="D3:E3"/>
@@ -4322,18 +4334,6 @@
     <mergeCell ref="Z3:AA3"/>
     <mergeCell ref="AB3:AC3"/>
     <mergeCell ref="AN3:AO3"/>
-    <mergeCell ref="AP3:AQ3"/>
-    <mergeCell ref="AD3:AE3"/>
-    <mergeCell ref="AF3:AG3"/>
-    <mergeCell ref="AH3:AI3"/>
-    <mergeCell ref="AJ3:AK3"/>
-    <mergeCell ref="AL3:AM3"/>
-    <mergeCell ref="AP2:AQ2"/>
-    <mergeCell ref="B2:U2"/>
-    <mergeCell ref="V2:AA2"/>
-    <mergeCell ref="AB2:AG2"/>
-    <mergeCell ref="AH2:AK2"/>
-    <mergeCell ref="AL2:AO2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
